--- a/Projects/DIAGEOIE/Data/Brand Score.xlsx
+++ b/Projects/DIAGEOIE/Data/Brand Score.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Bar Type Weight" sheetId="1" state="visible" r:id="rId2"/>
@@ -83,7 +83,7 @@
     <t>right</t>
   </si>
   <si>
-    <t>CENTRE/LEFT</t>
+    <t>LEFT</t>
   </si>
   <si>
     <t>More 9</t>
@@ -205,7 +205,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -232,6 +232,10 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -263,10 +267,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.8367346938776"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.3010204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -409,19 +413,19 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.59183673469388"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.280612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.32142857142857"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.85204081632653"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.05102040816327"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="3.78061224489796"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -451,22 +455,22 @@
       <c r="A2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="7" t="n">
+      <c r="C2" s="8" t="n">
         <v>1.1</v>
       </c>
-      <c r="D2" s="7" t="n">
+      <c r="D2" s="8" t="n">
         <v>1.2</v>
       </c>
-      <c r="E2" s="7" t="n">
+      <c r="E2" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="F2" s="7" t="n">
+      <c r="F2" s="8" t="n">
         <v>1.2</v>
       </c>
-      <c r="G2" s="7" t="n">
+      <c r="G2" s="8" t="n">
         <v>0.9</v>
       </c>
     </row>
@@ -474,68 +478,68 @@
       <c r="A3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="7" t="n">
+      <c r="C3" s="8" t="n">
         <v>1.1</v>
       </c>
-      <c r="D3" s="7" t="n">
+      <c r="D3" s="8" t="n">
         <v>1.2</v>
       </c>
-      <c r="E3" s="7" t="n">
+      <c r="E3" s="8" t="n">
         <v>1.75</v>
       </c>
-      <c r="F3" s="7" t="n">
+      <c r="F3" s="8" t="n">
         <v>1.2</v>
       </c>
-      <c r="G3" s="7" t="n">
+      <c r="G3" s="8" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="7" t="n">
+      <c r="C4" s="8" t="n">
         <v>0.9</v>
       </c>
-      <c r="D4" s="7" t="n">
+      <c r="D4" s="8" t="n">
         <v>1.4</v>
       </c>
-      <c r="E4" s="7" t="n">
+      <c r="E4" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="F4" s="7" t="n">
+      <c r="F4" s="8" t="n">
         <v>1.3</v>
       </c>
-      <c r="G4" s="7" t="n">
+      <c r="G4" s="8" t="n">
         <v>1.1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="7" t="n">
+      <c r="C5" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="D5" s="7" t="n">
+      <c r="D5" s="8" t="n">
         <v>1.2</v>
       </c>
-      <c r="E5" s="7" t="n">
+      <c r="E5" s="8" t="n">
         <v>1.75</v>
       </c>
-      <c r="F5" s="7" t="n">
+      <c r="F5" s="8" t="n">
         <v>1.2</v>
       </c>
-      <c r="G5" s="7" t="n">
+      <c r="G5" s="8" t="n">
         <v>1.1</v>
       </c>
     </row>

--- a/Projects/DIAGEOIE/Data/Brand Score.xlsx
+++ b/Projects/DIAGEOIE/Data/Brand Score.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Bar Type Weight" sheetId="1" state="visible" r:id="rId2"/>
@@ -14,85 +14,100 @@
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="Unspecified"/>
+      <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
-  <si>
-    <t>Segment</t>
-  </si>
-  <si>
-    <t>Primary</t>
-  </si>
-  <si>
-    <t>Secondary</t>
-  </si>
-  <si>
-    <t>Casual Restaurant</t>
-  </si>
-  <si>
-    <t>Formal Restaurant</t>
-  </si>
-  <si>
-    <t>Hotel Bar</t>
-  </si>
-  <si>
-    <t>Neighbourhood bar Mainstream</t>
-  </si>
-  <si>
-    <t>Neighbourhood bar Value</t>
-  </si>
-  <si>
-    <t>City Centre Pub</t>
-  </si>
-  <si>
-    <t>Stylish Bar</t>
-  </si>
-  <si>
-    <t>3rd Space</t>
-  </si>
-  <si>
-    <t>Night club</t>
-  </si>
-  <si>
-    <t>Sports Club/Bar</t>
-  </si>
-  <si>
-    <t>Scene Type</t>
-  </si>
-  <si>
-    <t>No Taps</t>
-  </si>
-  <si>
-    <t>left</t>
-  </si>
-  <si>
-    <t>left mid</t>
-  </si>
-  <si>
-    <t>middle</t>
-  </si>
-  <si>
-    <t>right mid</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>LEFT</t>
-  </si>
-  <si>
-    <t>More 9</t>
-  </si>
-  <si>
-    <t>Less 8</t>
-  </si>
-  <si>
-    <t>RIGHT</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
+  <si>
+    <t xml:space="preserve">Segment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secondary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Casual Restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formal Restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hotel Bar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neighbourhood bar Mainstream</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neighbourhood bar Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">City Centre Pub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stylish Bar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3rd Space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Night club</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sports Club/Bar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scene Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diverse/Uniform</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No Taps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LC-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEFT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U</t>
+  </si>
+  <si>
+    <t xml:space="preserve">More 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Less 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RIGHT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D</t>
   </si>
 </sst>
 </file>
@@ -100,7 +115,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00"/>
     <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
@@ -267,10 +282,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.3010204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.4897959183673"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -410,22 +425,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.280612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.32142857142857"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.85204081632653"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="3.78061224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.3469387755102"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -450,97 +466,270 @@
       <c r="G1" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="8" t="n">
+        <v>23</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="8" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="E2" s="8" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F2" s="8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G2" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="H2" s="8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I2" s="8" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="J2" s="8" t="n">
         <v>1.1</v>
-      </c>
-      <c r="D2" s="8" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="E2" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="F2" s="8" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="G2" s="8" t="n">
-        <v>0.9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="8" t="n">
+        <v>23</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="8" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="E3" s="8" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F3" s="8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G3" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="H3" s="8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I3" s="8" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="J3" s="8" t="n">
         <v>1.1</v>
-      </c>
-      <c r="D3" s="8" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="E3" s="8" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="F3" s="8" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="G3" s="8" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="8" t="n">
-        <v>0.9</v>
+        <v>27</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="D4" s="8" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="E4" s="8" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F4" s="8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G4" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" s="8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I4" s="8" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="J4" s="8" t="n">
         <v>1.4</v>
-      </c>
-      <c r="E4" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="F4" s="8" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="G4" s="8" t="n">
-        <v>1.1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="8" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="E5" s="8" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F5" s="8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G5" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="H5" s="8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I5" s="8" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="J5" s="8" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="8" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="E5" s="8" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="F5" s="8" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="G5" s="8" t="n">
+      <c r="B6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" s="8" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F6" s="8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G6" s="8" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H6" s="8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I6" s="8" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="J6" s="8" t="n">
         <v>1.1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" s="8" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F7" s="8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G7" s="8" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H7" s="8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I7" s="8" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="J7" s="8" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="8" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="E8" s="8" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F8" s="8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G8" s="8" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H8" s="8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I8" s="8" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="J8" s="8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="8" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="E9" s="8" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F9" s="8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G9" s="8" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H9" s="8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I9" s="8" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="J9" s="8" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
